--- a/Detalles de la tabla.xlsx
+++ b/Detalles de la tabla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hokho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carco\OneDrive\Escritorio\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECBEEC7E-AB67-4DA9-93AD-CD5EDBDCA724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76DC37E-7B4F-4A25-B5E6-BA8A0010F4B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21150" yWindow="1425" windowWidth="14430" windowHeight="9345" xr2:uid="{4BD4FC7D-9AC5-4387-8FD9-8DA2AE14BE2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4BD4FC7D-9AC5-4387-8FD9-8DA2AE14BE2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrones" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA20B10-39FD-4273-A605-589255BC11B3}">
   <dimension ref="B2:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,5 +1275,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>